--- a/tests/samples/test_odk.xlsx
+++ b/tests/samples/test_odk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Drive partagés\13A - Information Technology🔒\Apps squadron\Sycosur 2.0\4.Implementation\1.ODK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayiek\workspace\xlsF2schema\tests\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1053C6-EA96-499B-A045-72E9E9D6F250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6876E08-0240-41AF-9E5F-59C60600BD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -23,11 +23,24 @@
     <definedName name="village">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
   <si>
     <t>relevant</t>
   </si>
@@ -276,6 +289,9 @@
   </si>
   <si>
     <t>test_odk</t>
+  </si>
+  <si>
+    <t>TRUE</t>
   </si>
 </sst>
 </file>
@@ -485,10 +501,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -757,10 +769,10 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.6640625" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -770,7 +782,7 @@
     <col min="3" max="3" width="78.5546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="25" style="3" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" style="3"/>
-    <col min="6" max="6" width="8.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="37.5546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="24.6640625" style="18"/>
@@ -895,7 +907,9 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
@@ -968,7 +982,9 @@
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="G8" s="9" t="str">
         <f>"selected(${"&amp;B7&amp;"},'autre')"</f>
         <v>selected(${sous_cat},'autre')</v>
@@ -1344,7 +1360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
